--- a/files/matisse/matisse-stops.xlsx
+++ b/files/matisse/matisse-stops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2080" windowWidth="17240" windowHeight="10520" tabRatio="500"/>
+    <workbookView xWindow="7140" yWindow="1260" windowWidth="17240" windowHeight="10520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,680 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="260">
+  <si>
+    <t>14 Yelow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMCD 20310700</t>
+  </si>
+  <si>
+    <t>DWJAZZ021900</t>
+  </si>
+  <si>
+    <t>KOK2018</t>
+  </si>
+  <si>
+    <t>“In the end, there is only Matisse”</t>
+  </si>
+  <si>
+    <t>15 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pablo Picasso on Matisse</t>
+  </si>
+  <si>
+    <t>Final thoughts from Matisse</t>
+  </si>
+  <si>
+    <t>Kaywin outro and cabaret song-La Miss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2299.15</t>
+  </si>
+  <si>
+    <t>RMCD 20314100</t>
+  </si>
+  <si>
+    <t>HM106.10</t>
+  </si>
+  <si>
+    <t>Kaywin outro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse (Dominique Serrand) &amp;Katherine Rothkopf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KoK2252</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge028.24 &amp; KOK2018.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2252.6 La Petite valse muette. 1 Daverio 27774</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2252 Bolerumba Demarsan 2777744</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK 2252.4Bolerumba Demarsan 277744</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK 2252 Bolerumba Demarsan 277744</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2252.21 Les Mariniers Perrone 277761</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLA3028.06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never Again</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM_106_10_NAW_786775</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>013Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse’s documentation of his creative process</t>
+  </si>
+  <si>
+    <t>Matisse on relationships between colors</t>
+  </si>
+  <si>
+    <t>6 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMA, 1950.258</t>
+  </si>
+  <si>
+    <t>KLA3028.06</t>
+  </si>
+  <si>
+    <t>DWCD 0461.25.00</t>
+  </si>
+  <si>
+    <t>DWCD 05053700</t>
+  </si>
+  <si>
+    <t>KOK2260.24-2</t>
+  </si>
+  <si>
+    <t>Katherine Rothkopf</t>
+  </si>
+  <si>
+    <t>Katherine Rothkopf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“Purple Robe and Anemones” </t>
+  </si>
+  <si>
+    <t>:53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kathryn Rothkopf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return to familiar painting subjects</t>
+  </si>
+  <si>
+    <t>Matisse on the impulse to create</t>
+  </si>
+  <si>
+    <t>BMA, 1950.261</t>
+  </si>
+  <si>
+    <t>Erika Holmquist-Wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Jazz”</t>
+  </si>
+  <si>
+    <t>MIA, B.82.1</t>
+  </si>
+  <si>
+    <t>DWJAZZ 021900</t>
+  </si>
+  <si>
+    <t>Collaborative process</t>
+  </si>
+  <si>
+    <t>Drawing with scissors</t>
+  </si>
+  <si>
+    <t>Collage to printed book</t>
+  </si>
+  <si>
+    <t>What is a lithograph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse on the importance of drawing to his process</t>
+  </si>
+  <si>
+    <t>Matisse (Dominique Serrand)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sculptures of Aurore, The Serpentine and Two Women</t>
+  </si>
+  <si>
+    <t>HM.106.60 Never Again Walsh 786776</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM106.8 The Best is Yet to Come.Walsh 78673</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLA3030.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:57</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Fisher &amp;Matisse (Dominque Serrand) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM.106.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The little servant girl-cabaret song</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>002G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>002R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>002Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>003G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>003R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>005G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>005R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>005Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>006G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>006R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>006Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>007G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>007R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>007Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>008G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>008R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>008Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>009G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>009R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>010G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>010R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>010Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>011G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>011R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>011Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>012G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>012Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>013G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>014G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>014R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>014Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>015G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>015R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>015Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPME2001.20</t>
+  </si>
+  <si>
+    <t>“Standing Odalisque Reflected in a Mirror”</t>
+  </si>
+  <si>
+    <t>BMA, 1950.250</t>
+  </si>
+  <si>
+    <t>Matisse’s upbringing in northern France</t>
+  </si>
+  <si>
+    <t>“Large Reclining Nude” sculpture</t>
+  </si>
+  <si>
+    <t>BMA, 1950.436</t>
+  </si>
+  <si>
+    <t>Jay Fishser</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips for viewing this sculpture</t>
+  </si>
+  <si>
+    <t>Stop #</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>file name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object accession id #</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music #</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEAKER NAME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrator's Introduction </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>and welcome by Kaywin Feldman, director &amp; president , MIA</t>
+  </si>
+  <si>
+    <t>Eric Bruce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaywin Feldman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse and the Cone Sisters of Baltimore</t>
+  </si>
+  <si>
+    <t>Kok2252.07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erika Holmquist-Wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Green</t>
+  </si>
+  <si>
+    <t>Henri Matisse, modern art innovator</t>
+  </si>
+  <si>
+    <t>KOK2042.35</t>
+  </si>
+  <si>
+    <t>:48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cone Sisters of Baltimore</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2018.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathryn Rothkopf </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAP230.1.00 &amp; NM07707</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>:41</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Katherine Rothkopf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAP214.12.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Rose et Vert  Pomme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2213.32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse on envisioning sculpture in the mind</t>
+  </si>
+  <si>
+    <t>9 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse (Dominque Serrand)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Interior, Still Life with Parakeets”</t>
+  </si>
+  <si>
+    <t>Understanding the painting’s composition</t>
+  </si>
+  <si>
+    <t>A visitor’s recollection of Matisse’s studio</t>
+  </si>
+  <si>
+    <t>Matisse on composing harmonious paintings</t>
+  </si>
+  <si>
+    <t>BMA, 1950.252</t>
+  </si>
+  <si>
+    <t>Erika Holmquist-Wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“The Yellow Dress”</t>
+  </si>
+  <si>
+    <t>BMA, 1950.256</t>
+  </si>
+  <si>
+    <t>KOK2252.5</t>
+  </si>
+  <si>
+    <t>Kathryn Rothkopf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matisse’s surprise for Etta Cone</t>
+  </si>
+  <si>
+    <t>How this painting evolved over a decade</t>
+  </si>
+  <si>
+    <t>Matisse on the challenge of finishing “The Yellow Dress”</t>
+  </si>
+  <si>
+    <t>Erika Holmquist-Wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOK2252.6</t>
+  </si>
+  <si>
+    <t>12 Green</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Large Reclining Nude” painting</t>
+  </si>
+  <si>
+    <t>Space and proportion</t>
+  </si>
   <si>
     <t>Matisse in his own words</t>
   </si>
   <si>
     <t>Matisse (Dominique Serrand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CHAP230.1.00</t>
@@ -48,7 +711,7 @@
   </si>
   <si>
     <t>3Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Feeling the inspiration of Antoine-Louis Barye</t>
@@ -58,11 +721,11 @@
   </si>
   <si>
     <t>3Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Matisse on the demands of sculpture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -86,105 +749,105 @@
   </si>
   <si>
     <t>Jay Fisher</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>“Nude in a Rocking Chair”</t>
   </si>
   <si>
     <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>015</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>014</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>090</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>080</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>070</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>oo1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>009Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DWCD05001900</t>
   </si>
   <si>
     <t>Matisse (Dominque Serrand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>“The Serpentine”</t>
@@ -194,11 +857,11 @@
   </si>
   <si>
     <t>:25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"Two Women"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BMA 1950.93</t>
@@ -211,19 +874,19 @@
   </si>
   <si>
     <t>none</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>:30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>:36</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Jay Fisher</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>The Early Years in Nice</t>
@@ -253,11 +916,11 @@
   </si>
   <si>
     <t>6 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Matisse’s introduction to Nice</t>
@@ -291,15 +954,15 @@
   </si>
   <si>
     <t>7 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Matisse’s friendship with Pierre-Auguste Renoir</t>
@@ -315,676 +978,40 @@
   </si>
   <si>
     <t>8 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Seated Odalisque, Left Knee Bent, Ornamental Background and Checkerboard”</t>
   </si>
   <si>
     <t>BMA, 1950.255</t>
-  </si>
-  <si>
-    <t>BPME2001.20</t>
-  </si>
-  <si>
-    <t>“Standing Odalisque Reflected in a Mirror”</t>
-  </si>
-  <si>
-    <t>BMA, 1950.250</t>
-  </si>
-  <si>
-    <t>Matisse’s upbringing in northern France</t>
-  </si>
-  <si>
-    <t>“Large Reclining Nude” sculpture</t>
-  </si>
-  <si>
-    <t>BMA, 1950.436</t>
-  </si>
-  <si>
-    <t>Jay Fishser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tips for viewing this sculpture</t>
-  </si>
-  <si>
-    <t>Stop #</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>file name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>object accession id #</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music #</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEAKER NAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrator's Introduction </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>and welcome by Kaywin Feldman, director &amp; president , MIA</t>
-  </si>
-  <si>
-    <t>Eric Bruce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaywin Feldman</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse and the Cone Sisters of Baltimore</t>
-  </si>
-  <si>
-    <t>Kok2252.07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 Green</t>
-  </si>
-  <si>
-    <t>Henri Matisse, modern art innovator</t>
-  </si>
-  <si>
-    <t>KOK2042.35</t>
-  </si>
-  <si>
-    <t>:48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Cone Sisters of Baltimore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2018.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathryn Rothkopf </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAP230.1.00 &amp; NM07707</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:41</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Katherine Rothkopf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAP214.12.00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Rose et Vert  Pomme</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2213.32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse on envisioning sculpture in the mind</t>
-  </si>
-  <si>
-    <t>9 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse (Dominque Serrand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Interior, Still Life with Parakeets”</t>
-  </si>
-  <si>
-    <t>Understanding the painting’s composition</t>
-  </si>
-  <si>
-    <t>A visitor’s recollection of Matisse’s studio</t>
-  </si>
-  <si>
-    <t>Matisse on composing harmonious paintings</t>
-  </si>
-  <si>
-    <t>BMA, 1950.252</t>
-  </si>
-  <si>
-    <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>“The Yellow Dress”</t>
-  </si>
-  <si>
-    <t>BMA, 1950.256</t>
-  </si>
-  <si>
-    <t>KOK2252.5</t>
-  </si>
-  <si>
-    <t>Kathryn Rothkopf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse’s surprise for Etta Cone</t>
-  </si>
-  <si>
-    <t>How this painting evolved over a decade</t>
-  </si>
-  <si>
-    <t>Matisse on the challenge of finishing “The Yellow Dress”</t>
-  </si>
-  <si>
-    <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2252.6</t>
-  </si>
-  <si>
-    <t>12 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Large Reclining Nude” painting</t>
-  </si>
-  <si>
-    <t>Space and proportion</t>
-  </si>
-  <si>
-    <t>Matisse’s documentation of his creative process</t>
-  </si>
-  <si>
-    <t>Matisse on relationships between colors</t>
-  </si>
-  <si>
-    <t>6 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMA, 1950.258</t>
-  </si>
-  <si>
-    <t>KLA3028.06</t>
-  </si>
-  <si>
-    <t>DWCD 0461.25.00</t>
-  </si>
-  <si>
-    <t>DWCD 05053700</t>
-  </si>
-  <si>
-    <t>KOK2260.24-2</t>
-  </si>
-  <si>
-    <t>Katherine Rothkopf</t>
-  </si>
-  <si>
-    <t>Katherine Rothkopf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">“Purple Robe and Anemones” </t>
-  </si>
-  <si>
-    <t>:53</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kathryn Rothkopf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return to familiar painting subjects</t>
-  </si>
-  <si>
-    <t>Matisse on the impulse to create</t>
-  </si>
-  <si>
-    <t>BMA, 1950.261</t>
-  </si>
-  <si>
-    <t>Erika Holmquist-Wall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Jazz”</t>
-  </si>
-  <si>
-    <t>MIA, B.82.1</t>
-  </si>
-  <si>
-    <t>DWJAZZ 021900</t>
-  </si>
-  <si>
-    <t>Collaborative process</t>
-  </si>
-  <si>
-    <t>Drawing with scissors</t>
-  </si>
-  <si>
-    <t>Collage to printed book</t>
-  </si>
-  <si>
-    <t>What is a lithograph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse on the importance of drawing to his process</t>
-  </si>
-  <si>
-    <t>Matisse (Dominique Serrand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sculptures of Aurore, The Serpentine and Two Women</t>
-  </si>
-  <si>
-    <t>HM.106.60 Never Again Walsh 786776</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM106.8 The Best is Yet to Come.Walsh 78673</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KLA3030.24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:54</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:57</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Fisher &amp;Matisse (Dominque Serrand) </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM.106.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The little servant girl-cabaret song</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>008G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>008R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>008Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>009G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>009R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>011G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>011R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>011Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>012G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>012Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>013Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>013G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>014G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>014R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>014Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>015G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>015R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>015Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 Yelow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMCD 20310700</t>
-  </si>
-  <si>
-    <t>DWJAZZ021900</t>
-  </si>
-  <si>
-    <t>KOK2018</t>
-  </si>
-  <si>
-    <t>“In the end, there is only Matisse”</t>
-  </si>
-  <si>
-    <t>15 Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 Yellow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pablo Picasso on Matisse</t>
-  </si>
-  <si>
-    <t>Final thoughts from Matisse</t>
-  </si>
-  <si>
-    <t>Kaywin outro and cabaret song-La Miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2299.15</t>
-  </si>
-  <si>
-    <t>RMCD 20314100</t>
-  </si>
-  <si>
-    <t>HM106.10</t>
-  </si>
-  <si>
-    <t>Kaywin outro</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matisse (Dominique Serrand) &amp;Katherine Rothkopf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KoK2252</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2018</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge028.24 &amp; KOK2018.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2252.6 La Petite valse muette. 1 Daverio 27774</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2252 Bolerumba Demarsan 2777744</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>:34</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK 2252.4Bolerumba Demarsan 277744</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK 2252 Bolerumba Demarsan 277744</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOK2252.21 Les Mariniers Perrone 277761</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KLA3028.06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -1051,37 +1078,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1090,17 +1117,26 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1450,25 +1486,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1476,16 +1512,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G4" s="12">
         <v>9.7222222222222224E-2</v>
@@ -1519,16 +1555,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G6" s="12">
         <v>9.0277777777777776E-2</v>
@@ -1536,19 +1572,19 @@
     </row>
     <row r="7" spans="1:7" ht="40">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G7" s="12">
         <v>5.9027777777777783E-2</v>
@@ -1556,19 +1592,19 @@
     </row>
     <row r="8" spans="1:7" ht="27">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="G8" s="12">
         <v>9.7222222222222224E-2</v>
@@ -1576,19 +1612,19 @@
     </row>
     <row r="9" spans="1:7" ht="40">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="G9" s="12">
         <v>5.1388888888888894E-2</v>
@@ -1603,19 +1639,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G11" s="12">
         <v>8.4027777777777771E-2</v>
@@ -1623,25 +1659,25 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="D12" s="6" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G13" s="12">
         <v>7.8472222222222221E-2</v>
@@ -1649,22 +1685,22 @@
     </row>
     <row r="14" spans="1:7" ht="40">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1681,19 +1717,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G17" s="12">
         <v>9.0277777777777776E-2</v>
@@ -1701,19 +1737,19 @@
     </row>
     <row r="18" spans="1:7" ht="53">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="G18" s="12">
         <v>5.7638888888888885E-2</v>
@@ -1721,42 +1757,42 @@
     </row>
     <row r="19" spans="1:7" ht="39">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1767,19 +1803,19 @@
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="G22" s="12">
         <v>0.10416666666666667</v>
@@ -1787,19 +1823,19 @@
     </row>
     <row r="23" spans="1:7" ht="15">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="G23" s="12">
         <v>5.6944444444444443E-2</v>
@@ -1807,19 +1843,19 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="G24" s="12">
         <v>8.8888888888888892E-2</v>
@@ -1827,19 +1863,19 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="G25" s="12">
         <v>6.5972222222222224E-2</v>
@@ -1853,19 +1889,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G27" s="12">
         <v>0.12222222222222223</v>
@@ -1873,19 +1909,19 @@
     </row>
     <row r="28" spans="1:7" ht="27">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="G28" s="12">
         <v>6.458333333333334E-2</v>
@@ -1893,42 +1929,42 @@
     </row>
     <row r="29" spans="1:7" ht="40">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="G30" s="12">
         <v>6.1111111111111116E-2</v>
@@ -1942,19 +1978,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="G32" s="12">
         <v>0.10069444444444443</v>
@@ -1962,19 +1998,19 @@
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="G33" s="12">
         <v>4.3055555555555562E-2</v>
@@ -1982,42 +2018,42 @@
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="40">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2028,16 +2064,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="G37" s="12">
         <v>0.10486111111111111</v>
@@ -2045,22 +2081,22 @@
     </row>
     <row r="38" spans="1:7" ht="64">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G38" s="12">
         <v>0.10069444444444443</v>
@@ -2068,22 +2104,22 @@
     </row>
     <row r="39" spans="1:7" ht="32">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G39" s="12">
         <v>4.5833333333333337E-2</v>
@@ -2091,22 +2127,22 @@
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2117,19 +2153,19 @@
         <v>9</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G42" s="11">
         <v>9.4444444444444442E-2</v>
@@ -2137,56 +2173,56 @@
     </row>
     <row r="43" spans="1:7" ht="30">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="53">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="26">
       <c r="A45" s="13" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="G45" s="12">
         <v>6.1805555555555558E-2</v>
@@ -2200,19 +2236,19 @@
         <v>10</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G47" s="12">
         <v>7.4305555555555555E-2</v>
@@ -2220,19 +2256,19 @@
     </row>
     <row r="48" spans="1:7" ht="53">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G48" s="12">
         <v>5.2083333333333336E-2</v>
@@ -2240,19 +2276,19 @@
     </row>
     <row r="49" spans="1:7" ht="53">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G49" s="12">
         <v>4.9305555555555554E-2</v>
@@ -2260,22 +2296,22 @@
     </row>
     <row r="50" spans="1:7" ht="40">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2286,19 +2322,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G52" s="12">
         <v>0.11458333333333333</v>
@@ -2306,19 +2342,19 @@
     </row>
     <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G53" s="12">
         <v>6.25E-2</v>
@@ -2326,19 +2362,19 @@
     </row>
     <row r="54" spans="1:7" ht="30">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="G54" s="12">
         <v>0.11805555555555557</v>
@@ -2346,22 +2382,22 @@
     </row>
     <row r="55" spans="1:7" ht="40">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2372,19 +2408,19 @@
         <v>12</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="G57" s="12">
         <v>0.10902777777777778</v>
@@ -2392,19 +2428,19 @@
     </row>
     <row r="58" spans="1:7" ht="15">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G58" s="12">
         <v>0.10555555555555556</v>
@@ -2412,19 +2448,19 @@
     </row>
     <row r="59" spans="1:7" ht="40">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G59" s="12">
         <v>7.3611111111111113E-2</v>
@@ -2432,22 +2468,22 @@
     </row>
     <row r="60" spans="1:7" ht="40">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G60" s="11" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2457,20 +2493,20 @@
       <c r="A62" s="1">
         <v>13</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>218</v>
+      <c r="B62" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G62" s="12">
         <v>0.12986111111111112</v>
@@ -2478,19 +2514,19 @@
     </row>
     <row r="63" spans="1:7" ht="40">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G63" s="11">
         <v>5.0694444444444452E-2</v>
@@ -2498,27 +2534,42 @@
     </row>
     <row r="64" spans="1:7" ht="40">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15">
-      <c r="C65" s="6"/>
-      <c r="G65" s="11"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="27">
+      <c r="A65" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19">
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="G66" s="11"/>
@@ -2528,19 +2579,19 @@
         <v>14</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G67" s="11">
         <v>9.0277777777777776E-2</v>
@@ -2548,19 +2599,19 @@
     </row>
     <row r="68" spans="1:7" ht="53">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="G68" s="11">
         <v>0.12569444444444444</v>
@@ -2568,19 +2619,19 @@
     </row>
     <row r="69" spans="1:7" ht="53">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="G69" s="11">
         <v>0.15972222222222224</v>
@@ -2588,19 +2639,19 @@
     </row>
     <row r="70" spans="1:7" ht="15">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="G70" s="11">
         <v>5.4166666666666669E-2</v>
@@ -2614,16 +2665,16 @@
         <v>15</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G72" s="11">
         <v>5.1388888888888894E-2</v>
@@ -2631,59 +2682,59 @@
     </row>
     <row r="73" spans="1:7" ht="40">
       <c r="A73" s="1" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="40">
       <c r="A74" s="1" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="27">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="G75" s="12">
         <v>6.8749999999999992E-2</v>
@@ -2696,7 +2747,7 @@
   <sortState ref="A45:C45">
     <sortCondition descending="1" ref="A45"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" location="query=Antoine-Louis%20Barye"/>
   </hyperlinks>
